--- a/Base/Teams/Titans/Target Depth Data.xlsx
+++ b/Base/Teams/Titans/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="C2">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="D2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="C2">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="D2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Titans/Target Depth Data.xlsx
+++ b/Base/Teams/Titans/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="C3">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>34</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -529,13 +529,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="C3">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E3">
         <v>51</v>
@@ -544,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Titans/Target Depth Data.xlsx
+++ b/Base/Teams/Titans/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="C2">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="D2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="C2">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>7</v>

--- a/Base/Teams/Titans/Target Depth Data.xlsx
+++ b/Base/Teams/Titans/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C2">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="D2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="C2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>7</v>

--- a/Base/Teams/Titans/Target Depth Data.xlsx
+++ b/Base/Teams/Titans/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="C3">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="C3">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>7</v>

--- a/Base/Teams/Titans/Target Depth Data.xlsx
+++ b/Base/Teams/Titans/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="C2">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="C2">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="D2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>7</v>
